--- a/app/public/file/csv/template/jz_xxx.xlsx
+++ b/app/public/file/csv/template/jz_xxx.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\github\ibeem\app\public\file\csv\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CC25D-1176-4164-A5E3-C8E1C578B285}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView xWindow="-1665" yWindow="3765" windowWidth="27615" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
   <si>
     <t>调研测试主体单位</t>
   </si>
@@ -410,6 +416,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>U</t>
@@ -420,6 +427,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -477,18 +485,60 @@
   <si>
     <t>非传统水源利用率</t>
   </si>
+  <si>
+    <t>测试单位</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试课题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号建筑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑名称</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibeem</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无星</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>南</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,150 +582,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,10 +597,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,192 +630,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1001,279 +756,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,116 +779,104 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1680,114 +1163,181 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:U1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="16" width="16.125" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11.375" customWidth="1"/>
     <col min="19" max="19" width="9.75" customWidth="1"/>
     <col min="20" max="20" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="31" customFormat="1" ht="33" spans="1:21">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:21" s="14" customFormat="1" ht="33">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="34">
+        <v>11111111111</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="36">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="36">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="O2" s="37">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="P2" s="36">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="34">
+        <v>10000</v>
+      </c>
+      <c r="T2" s="34">
+        <v>10000</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"GB/T50378-2006,GB/T50378-2014,地标……"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"一星,二星,三星"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"设计,运行"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1814,86 +1364,85 @@
     <col min="23" max="23" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="29" customFormat="1" ht="49.5" spans="1:23">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:23" s="12" customFormat="1" ht="49.5">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1913,196 +1462,196 @@
     <col min="20" max="21" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:44">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="26" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:44">
+    <row r="2" spans="1:44" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AC2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AE2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AG2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AK2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AN2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AO2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AP2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AR2" s="28" t="s">
+      <c r="AR2" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="10:10">
+    <row r="5" spans="1:44">
       <c r="J5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" ht="11.25" customHeight="1"/>
+    <row r="9" spans="1:44" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D1:Q1"/>
@@ -2111,30 +1660,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"设计,运行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"一星,二星,三星"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -2148,7 +1696,7 @@
     <col min="16" max="16" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
@@ -2158,70 +1706,70 @@
       <c r="C1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="19" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="49.5" spans="1:16">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="49.5">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="16:16">
-      <c r="P8" s="22"/>
+    <row r="8" spans="1:16">
+      <c r="P8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2231,75 +1779,74 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"设计,运行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"一星,二星,三星"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:10" ht="16.5">
+      <c r="A1" s="7"/>
+      <c r="B1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
-    <row r="2" ht="33" spans="1:10">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:10" ht="33">
+      <c r="A2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2308,14 +1855,13 @@
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,88 +1877,88 @@
     <col min="15" max="15" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="8" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="49.5" spans="1:18">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="49.5">
+      <c r="A2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="8:8">
-      <c r="H11" s="7"/>
+    <row r="11" spans="1:18">
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2422,15 +1968,16 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"设计,运行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"一星,二星,三星"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/public/file/csv/template/jz_xxx.xlsx
+++ b/app/public/file/csv/template/jz_xxx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\github\ibeem\app\public\file\csv\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717CC25D-1176-4164-A5E3-C8E1C578B285}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A159B72-18F5-4B40-8381-2CE7D0A9D0BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1665" yWindow="3765" windowWidth="27615" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27615" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>建筑类型</t>
-  </si>
-  <si>
-    <t>地理位置</t>
   </si>
   <si>
     <t>申报单位</t>
@@ -531,6 +528,10 @@
   </si>
   <si>
     <t>测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在城市</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -800,57 +801,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -864,6 +814,57 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,7 +1173,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1201,121 +1202,121 @@
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>133</v>
+      <c r="E1" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="17">
+        <v>11111111111</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="34">
-        <v>11111111111</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="19">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="36">
+      <c r="L2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="19">
         <v>43498.423726851855</v>
       </c>
-      <c r="K2" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="33" t="s">
+      <c r="O2" s="20">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="P2" s="19">
+        <v>43498.423726851855</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>1000</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="N2" s="36">
-        <v>43498.423726851855</v>
-      </c>
-      <c r="O2" s="37">
-        <v>43498.423726851855</v>
-      </c>
-      <c r="P2" s="36">
-        <v>43498.423726851855</v>
-      </c>
-      <c r="Q2" s="34">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="33" t="s">
+      <c r="S2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="T2" s="17">
+        <v>10000</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="S2" s="34">
-        <v>10000</v>
-      </c>
-      <c r="T2" s="34">
-        <v>10000</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1369,70 +1370,70 @@
         <v>4</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1463,192 +1464,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
     </row>
     <row r="2" spans="1:44" s="1" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AR2" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="AR2" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="J5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="11.25" customHeight="1"/>
@@ -1697,75 +1698,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="49.5">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1804,50 +1805,50 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5">
       <c r="A1" s="7"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" ht="33">
       <c r="A2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1878,83 +1879,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="49.5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:18">
